--- a/TheseThree.Admin/Content/File/yonghu_import.xlsx
+++ b/TheseThree.Admin/Content/File/yonghu_import.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20580" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
     <sheet name="用户示例" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,8 +182,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -388,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -565,27 +561,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,16 +598,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -622,20 +618,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,79 +648,79 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>13813813888</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>170609</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -735,7 +731,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -746,7 +742,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -757,7 +753,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
